--- a/data/trans_dic/P23_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede</t>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,12 +657,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,32 +672,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,23</t>
+          <t>0,0; 21,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,94</t>
+          <t>0,0; 17,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,5</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,93</t>
+          <t>0,0; 11,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,17</t>
+          <t>0,0; 10,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,92</t>
+          <t>0,0; 9,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,56</t>
+          <t>0,0; 9,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,8</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,03</t>
         </is>
       </c>
     </row>
@@ -752,37 +807,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,82</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 17,77</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 15,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,34</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>0,0; 9,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,35</t>
+          <t>0,67; 8,56</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 6,83</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,63</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 15,78</t>
+          <t>3,26; 18,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 22,98</t>
+          <t>1,66; 15,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 36,7</t>
+          <t>1,95; 16,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 10,32</t>
+          <t>1,98; 15,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,06</t>
+          <t>1,71; 10,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 9,84</t>
+          <t>0,0; 5,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,5</t>
+          <t>1,08; 9,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 12,48</t>
+          <t>0,81; 9,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 20,19</t>
+          <t>3,09; 10,86</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 6,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 10,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 9,83</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,96</t>
+          <t>0,0; 4,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 7,25</t>
+          <t>1,11; 12,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 8,06</t>
+          <t>1,16; 10,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 15,37</t>
+          <t>1,14; 10,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,6</t>
+          <t>6,45; 19,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 13,16</t>
+          <t>2,92; 13,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,82</t>
+          <t>3,96; 15,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,47</t>
+          <t>7,92; 22,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,87</t>
+          <t>3,86; 11,59</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 9,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 10,84</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 13,86</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 12,49</t>
+          <t>1,46; 13,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,54</t>
+          <t>1,45; 13,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 8,14</t>
+          <t>0,0; 9,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,31</t>
+          <t>2,91; 28,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 10,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,5</t>
+          <t>1,8; 16,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,62</t>
+          <t>0,0; 12,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,33</t>
+          <t>4,58; 23,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,14</t>
+          <t>0,78; 8,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 10,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 6,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 22,51</t>
         </is>
       </c>
     </row>
@@ -1182,12 +1357,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1197,32 +1372,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 16,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 20,7</t>
+          <t>1,96; 18,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,93</t>
+          <t>2,08; 16,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 13,27</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 8,01</t>
+          <t>2,36; 21,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>1,17; 9,8</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,68</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 16,31</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,16</t>
+          <t>1,55; 5,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,68</t>
+          <t>1,77; 6,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,13</t>
+          <t>1,39; 5,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,72</t>
+          <t>2,73; 8,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,86</t>
+          <t>4,06; 8,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,84</t>
+          <t>1,47; 4,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,71</t>
+          <t>2,67; 6,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,88</t>
+          <t>4,82; 10,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,65</t>
+          <t>3,3; 6,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 4,56</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 5,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 8,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2795</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3117</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7183</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3117</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23490</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17953</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14178</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12899</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13928</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23203</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24247</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16671</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14322</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6689</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9345</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4121</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3097</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9345</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6484</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9786</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10830</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 35164</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 25732</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13028</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16019</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2249; 28594</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1841; 19154</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 33657</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13571</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8293</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13174</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12229</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8529</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7962</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25800</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10309</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18394</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21136</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5288; 30389</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2233; 20515</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2635; 21940</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3565; 28413</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4523; 26841</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11433</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2164; 19310</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1945; 22820</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13150; 46264</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3158; 23264</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8167; 34465</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9508; 41284</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6518</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6034</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8377</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>26625</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12702</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14305</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28872</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28664</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19220</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20340</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>37249</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8261</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1782; 20801</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1812; 16388</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2261; 21595</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14088; 41583</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5434; 24730</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6746; 26801</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16845; 47167</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15638; 46956</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9442; 32813</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10413; 35393</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21813; 57056</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8958</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7423</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3382</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15618</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5757</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17124</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8958</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13180</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6718</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>32742</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2294; 21710</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1920; 17706</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12020</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4502; 43456</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1652; 15066</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11617</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6279; 32682</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2132; 23210</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5528; 23550</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1676; 15077</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16368; 65651</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9286</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>19697</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>28982</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2700; 24844</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2860; 22986</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8814</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4894; 45594</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2900; 24194</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11210</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13005; 56328</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>28364</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>26622</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>21644</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>53144</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>60835</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>23271</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>35440</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>79476</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>89200</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>49893</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>57085</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>132620</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13786; 46643</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13496; 49007</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>10825; 41794</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>28376; 89876</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>42041; 91793</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>12307; 40026</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>21956; 53201</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>53254; 114783</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>63494; 121631</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>31514; 73066</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>38761; 81243</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>96034; 189822</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>